--- a/test-data/moon-and-cap.xlsx
+++ b/test-data/moon-and-cap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\bloom-translate-spreadsheet\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD1BB46-99A7-4B9F-AD33-F62363141A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D5D4F-4C45-4A97-BC8D-31F3F0E63E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{176E39C4-CAD2-415A-BE82-F5F1B9D5E89F}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{ADD51B83-6B8B-48C1-9B2B-306B16877D65}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Note, the real identification of this language is in a hidden row above this, e.g. [en]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Note, the real identification of this language is in a hidden row above this, e.g. [en]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>[row type]</t>
   </si>
@@ -288,6 +310,18 @@
   </si>
   <si>
     <t>[comment]</t>
+  </si>
+  <si>
+    <t>[fr-x-ai-google]</t>
+  </si>
+  <si>
+    <t>français ai google</t>
+  </si>
+  <si>
+    <t>français ai acts2</t>
+  </si>
+  <si>
+    <t>[fr-x-ai-acts2]</t>
   </si>
 </sst>
 </file>
@@ -763,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -776,7 +810,7 @@
     <col min="4" max="4" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,16 +830,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -825,16 +865,22 @@
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -848,8 +894,10 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -860,11 +908,13 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -879,15 +929,17 @@
         <v>26</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
@@ -899,8 +951,10 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="189" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="189" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -915,15 +969,17 @@
         <v>31</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -934,11 +990,13 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
@@ -949,11 +1007,13 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -966,11 +1026,17 @@
       <c r="F10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -983,13 +1049,19 @@
       <c r="F11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="G11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="130.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="130.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
@@ -1001,8 +1073,10 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
@@ -1013,11 +1087,13 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="145" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="145" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>46</v>
       </c>
@@ -1030,11 +1106,17 @@
       <c r="F14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="188.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="188.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
@@ -1047,11 +1129,17 @@
       <c r="F15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
@@ -1062,11 +1150,13 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -1077,11 +1167,13 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
@@ -1092,11 +1184,13 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
@@ -1109,11 +1203,17 @@
       <c r="F19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
@@ -1124,11 +1224,13 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>61</v>
       </c>
@@ -1141,11 +1243,17 @@
       <c r="F21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>64</v>
       </c>
@@ -1157,6 +1265,8 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
